--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEL\Documents\RepositorioORFEI\IOARR0001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDBE670-C960-4430-BC45-7BAAF71DCCB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3356849-9268-48B1-80E2-4E489228DC6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>entrada</t>
   </si>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,6 +371,9 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEL\Documents\RepositorioORFEI\IOARR0001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3356849-9268-48B1-80E2-4E489228DC6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD9D14-98DA-418F-A461-59CD4C353DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,28 +351,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Horario.xlsx
+++ b/Horario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEL\Documents\RepositorioORFEI\IOARR0001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD9D14-98DA-418F-A461-59CD4C353DAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC69C16-957C-482D-869A-5172AF45CFB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>entrada</t>
   </si>
@@ -354,7 +354,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,6 +382,9 @@
       <c r="A3">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
